--- a/scrapping/Stock Data Yahoo/data_ECONOMICA.xlsx
+++ b/scrapping/Stock Data Yahoo/data_ECONOMICA.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2409,16 +2409,16 @@
         <v>45474</v>
       </c>
       <c r="B116" t="n">
-        <v>123.558</v>
+        <v>123.575</v>
       </c>
       <c r="C116" t="n">
-        <v>122.703</v>
+        <v>122.722</v>
       </c>
       <c r="D116" t="n">
-        <v>2.454435396938592</v>
+        <v>2.468531816448039</v>
       </c>
       <c r="E116" t="n">
-        <v>2.649411056083517</v>
+        <v>2.665305849283883</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,33 @@
         <v>45505</v>
       </c>
       <c r="B117" t="n">
-        <v>123.67</v>
+        <v>123.727</v>
       </c>
       <c r="C117" t="n">
-        <v>122.863</v>
+        <v>122.926</v>
       </c>
       <c r="D117" t="n">
-        <v>2.236184020171117</v>
+        <v>2.283305088248677</v>
       </c>
       <c r="E117" t="n">
-        <v>2.678466964181259</v>
+        <v>2.731117016831308</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B118" t="n">
+        <v>123.939</v>
+      </c>
+      <c r="C118" t="n">
+        <v>123.234</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.102366810284462</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.660779740086627</v>
       </c>
     </row>
   </sheetData>
